--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results.csv/F/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results.csv/F/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Simulator_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results.csv\F\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB497249-2833-42DE-9A54-2C184257BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EB5D75-CC43-4C34-A379-12FF7D3E0E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9413" xr2:uid="{ACF9F467-79DD-487D-AAB9-5B7398F6663E}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9413" xr2:uid="{C7ED24E0-CE40-41AB-BCFA-2A014E2E2E23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2796A65E-FB00-4229-BE7A-7AA2E6C58BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B99F45-6F17-4EEE-B26F-F09CE0A42E22}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
